--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,34 +409,40 @@
       <c r="B1" t="str">
         <v>Order 1</v>
       </c>
+      <c r="C1" t="str">
+        <v>Order 2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>THUY</v>
+        <v>Nha Thu</v>
       </c>
       <c r="B2" t="str">
-        <v>THUY_2024-10-10.xlsx</v>
+        <v>Nha Thu_2024-10-11.xlsx</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Nha Thu_2024-10-12.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>dang</v>
+        <v>THUY</v>
       </c>
       <c r="B3" t="str">
-        <v>dang_2024-10-10.xlsx</v>
+        <v>THUY_2024-10-10.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>name001</v>
+        <v>dang</v>
       </c>
       <c r="B4" t="str">
-        <v>name001_2024-10-11.xlsx</v>
+        <v>dang_2024-10-10.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,15 @@
       <c r="C1" t="str">
         <v>Order 2</v>
       </c>
+      <c r="D1" t="str">
+        <v>Order 3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Order 4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Order 5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -423,26 +432,27 @@
       <c r="C2" t="str">
         <v>Nha Thu_2024-10-12.xlsx</v>
       </c>
+      <c r="D2" t="str">
+        <v>Nha Thu_2024-10-14.xlsx</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Nha Thu_2024-10-15.xlsx</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Nha Thu_2024-10-16.xlsx</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>THUY</v>
+        <v>korean papa</v>
       </c>
       <c r="B3" t="str">
-        <v>THUY_2024-10-10.xlsx</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>dang</v>
-      </c>
-      <c r="B4" t="str">
-        <v>dang_2024-10-10.xlsx</v>
+        <v>korean papa_2024-10-24.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:DX8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,38 +421,945 @@
       <c r="F1" t="str">
         <v>Order 5</v>
       </c>
+      <c r="G1" t="str">
+        <v>Order 6</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Order 7</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Order 8</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Order 9</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Order 10</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Order 11</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Order 12</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Order 13</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Order 14</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Order 15</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Order 16</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Order 17</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Order 18</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Order 19</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Order 20</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Order 21</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Order 22</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Order 23</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Order 24</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Order 25</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Order 26</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Order 27</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Order 28</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Order 29</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Order 30</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Order 31</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Order 32</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Order 33</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Order 34</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Order 35</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Order 36</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Order 37</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Order 38</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Order 39</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Order 40</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Order 41</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Order 42</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Order 43</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Order 44</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>Order 45</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Order 46</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Order 47</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Order 48</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Order 49</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>Order 50</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>Order 51</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>Order 52</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>Order 53</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>Order 54</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>Order 55</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>Order 56</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>Order 57</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>Order 58</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>Order 59</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>Order 60</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>Order 61</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>Order 62</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>Order 63</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>Order 64</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>Order 65</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>Order 66</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>Order 67</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>Order 68</v>
+      </c>
+      <c r="BR1" t="str">
+        <v>Order 69</v>
+      </c>
+      <c r="BS1" t="str">
+        <v>Order 70</v>
+      </c>
+      <c r="BT1" t="str">
+        <v>Order 71</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>Order 72</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>Order 73</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>Order 74</v>
+      </c>
+      <c r="BX1" t="str">
+        <v>Order 75</v>
+      </c>
+      <c r="BY1" t="str">
+        <v>Order 76</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>Order 77</v>
+      </c>
+      <c r="CA1" t="str">
+        <v>Order 78</v>
+      </c>
+      <c r="CB1" t="str">
+        <v>Order 79</v>
+      </c>
+      <c r="CC1" t="str">
+        <v>Order 80</v>
+      </c>
+      <c r="CD1" t="str">
+        <v>Order 81</v>
+      </c>
+      <c r="CE1" t="str">
+        <v>Order 82</v>
+      </c>
+      <c r="CF1" t="str">
+        <v>Order 83</v>
+      </c>
+      <c r="CG1" t="str">
+        <v>Order 84</v>
+      </c>
+      <c r="CH1" t="str">
+        <v>Order 85</v>
+      </c>
+      <c r="CI1" t="str">
+        <v>Order 86</v>
+      </c>
+      <c r="CJ1" t="str">
+        <v>Order 87</v>
+      </c>
+      <c r="CK1" t="str">
+        <v>Order 88</v>
+      </c>
+      <c r="CL1" t="str">
+        <v>Order 89</v>
+      </c>
+      <c r="CM1" t="str">
+        <v>Order 90</v>
+      </c>
+      <c r="CN1" t="str">
+        <v>Order 91</v>
+      </c>
+      <c r="CO1" t="str">
+        <v>Order 92</v>
+      </c>
+      <c r="CP1" t="str">
+        <v>Order 93</v>
+      </c>
+      <c r="CQ1" t="str">
+        <v>Order 94</v>
+      </c>
+      <c r="CR1" t="str">
+        <v>Order 95</v>
+      </c>
+      <c r="CS1" t="str">
+        <v>Order 96</v>
+      </c>
+      <c r="CT1" t="str">
+        <v>Order 97</v>
+      </c>
+      <c r="CU1" t="str">
+        <v>Order 98</v>
+      </c>
+      <c r="CV1" t="str">
+        <v>Order 99</v>
+      </c>
+      <c r="CW1" t="str">
+        <v>Order 100</v>
+      </c>
+      <c r="CX1" t="str">
+        <v>Order 101</v>
+      </c>
+      <c r="CY1" t="str">
+        <v>Order 102</v>
+      </c>
+      <c r="CZ1" t="str">
+        <v>Order 103</v>
+      </c>
+      <c r="DA1" t="str">
+        <v>Order 104</v>
+      </c>
+      <c r="DB1" t="str">
+        <v>Order 105</v>
+      </c>
+      <c r="DC1" t="str">
+        <v>Order 106</v>
+      </c>
+      <c r="DD1" t="str">
+        <v>Order 107</v>
+      </c>
+      <c r="DE1" t="str">
+        <v>Order 108</v>
+      </c>
+      <c r="DF1" t="str">
+        <v>Order 109</v>
+      </c>
+      <c r="DG1" t="str">
+        <v>Order 110</v>
+      </c>
+      <c r="DH1" t="str">
+        <v>Order 111</v>
+      </c>
+      <c r="DI1" t="str">
+        <v>Order 112</v>
+      </c>
+      <c r="DJ1" t="str">
+        <v>Order 113</v>
+      </c>
+      <c r="DK1" t="str">
+        <v>Order 114</v>
+      </c>
+      <c r="DL1" t="str">
+        <v>Order 115</v>
+      </c>
+      <c r="DM1" t="str">
+        <v>Order 116</v>
+      </c>
+      <c r="DN1" t="str">
+        <v>Order 117</v>
+      </c>
+      <c r="DO1" t="str">
+        <v>Order 118</v>
+      </c>
+      <c r="DP1" t="str">
+        <v>Order 119</v>
+      </c>
+      <c r="DQ1" t="str">
+        <v>Order 120</v>
+      </c>
+      <c r="DR1" t="str">
+        <v>Order 121</v>
+      </c>
+      <c r="DS1" t="str">
+        <v>Order 122</v>
+      </c>
+      <c r="DT1" t="str">
+        <v>Order 123</v>
+      </c>
+      <c r="DU1" t="str">
+        <v>Order 124</v>
+      </c>
+      <c r="DV1" t="str">
+        <v>Order 125</v>
+      </c>
+      <c r="DW1" t="str">
+        <v>Order 126</v>
+      </c>
+      <c r="DX1" t="str">
+        <v>Order 127</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Nha Thu</v>
+        <v>Dang Nguyen</v>
       </c>
       <c r="B2" t="str">
-        <v>Nha Thu_2024-10-11.xlsx</v>
+        <v>Dang Nguyen_2024-10-26.xlsx</v>
       </c>
       <c r="C2" t="str">
-        <v>Nha Thu_2024-10-12.xlsx</v>
+        <v>Dang Nguyen_2024-10-27.xlsx</v>
       </c>
       <c r="D2" t="str">
-        <v>Nha Thu_2024-10-14.xlsx</v>
+        <v>Dang Nguyen_2024-10-28.xlsx</v>
       </c>
       <c r="E2" t="str">
-        <v>Nha Thu_2024-10-15.xlsx</v>
+        <v>Dang Nguyen_2024-10-29.xlsx</v>
       </c>
       <c r="F2" t="str">
-        <v>Nha Thu_2024-10-16.xlsx</v>
+        <v>Dang Nguyen_2024-10-31.xlsx</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Dang Nguyen_2024-11-1.xlsx</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Dang Nguyen_2024-11-11.xlsx</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Dang Nguyen_2024-11-12.xlsx</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Dang Nguyen_2024-11-13.xlsx</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Dang Nguyen_2024-11-15.xlsx</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Dang Nguyen_2024-11-16.xlsx</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Dang Nguyen_2024-11-17.xlsx</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Dang Nguyen_2024-11-20.xlsx</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Dang Nguyen_2024-11-21.xlsx</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Dang Nguyen_2024-11-24.xlsx</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Dang Nguyen_2024-11-29.xlsx</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Dang Nguyen_2024-11-4.xlsx</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Dang Nguyen_2024-11-6.xlsx</v>
+      </c>
+      <c r="T2" t="str">
+        <v>Dang Nguyen_2024-11-7.xlsx</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Dang Nguyen_2024-11-9.xlsx</v>
+      </c>
+      <c r="V2" t="str">
+        <v>Dang Nguyen_2024-12-11.xlsx</v>
+      </c>
+      <c r="W2" t="str">
+        <v>Dang Nguyen_2024-12-17.xlsx</v>
+      </c>
+      <c r="X2" t="str">
+        <v>Dang Nguyen_2024-12-18.xlsx</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>Dang Nguyen_2024-12-2.xlsx</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>Dang Nguyen_2024-12-22.xlsx</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>Dang Nguyen_2024-12-24.xlsx</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>Dang Nguyen_2024-12-25.xlsx</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>Dang Nguyen_2024-12-26.xlsx</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>Dang Nguyen_2024-12-28.xlsx</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>Dang Nguyen_2024-12-29.xlsx</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>Dang Nguyen_2024-12-31.xlsx</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>Dang Nguyen_2024-12-6.xlsx</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>Dang Nguyen_2024-12-9.xlsx</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>Dang Nguyen_2025-1-11.xlsx</v>
+      </c>
+      <c r="AJ2" t="str">
+        <v>Dang Nguyen_2025-1-15.xlsx</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>Dang Nguyen_2025-1-19.xlsx</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>Dang Nguyen_2025-1-4.xlsx</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>Dang Nguyen_2025-1-6.xlsx</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>Dang Nguyen_2025-2-1.xlsx</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>Dang Nguyen_2025-2-10.xlsx</v>
+      </c>
+      <c r="AP2" t="str">
+        <v>Dang Nguyen_2025-2-15.xlsx</v>
+      </c>
+      <c r="AQ2" t="str">
+        <v>Dang Nguyen_2025-2-18.xlsx</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>Dang Nguyen_2025-2-20.xlsx</v>
+      </c>
+      <c r="AS2" t="str">
+        <v>Dang Nguyen_2025-2-24.xlsx</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>Dang Nguyen_2025-2-3.xlsx</v>
+      </c>
+      <c r="AU2" t="str">
+        <v>Dang Nguyen_2025-2-5.xlsx</v>
+      </c>
+      <c r="AV2" t="str">
+        <v>Dang Nguyen_2025-2-7.xlsx</v>
+      </c>
+      <c r="AW2" t="str">
+        <v>Dang Nguyen_2025-3-11.xlsx</v>
+      </c>
+      <c r="AX2" t="str">
+        <v>Dang Nguyen_2025-3-12.xlsx</v>
+      </c>
+      <c r="AY2" t="str">
+        <v>Dang Nguyen_2025-3-13.xlsx</v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>Dang Nguyen_2025-3-16.xlsx</v>
+      </c>
+      <c r="BA2" t="str">
+        <v>Dang Nguyen_2025-3-17.xlsx</v>
+      </c>
+      <c r="BB2" t="str">
+        <v>Dang Nguyen_2025-3-19.xlsx</v>
+      </c>
+      <c r="BC2" t="str">
+        <v>Dang Nguyen_2025-3-2.xlsx</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>Dang Nguyen_2025-3-26.xlsx</v>
+      </c>
+      <c r="BE2" t="str">
+        <v>Dang Nguyen_2025-3-27.xlsx</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>Dang Nguyen_2025-3-28.xlsx</v>
+      </c>
+      <c r="BG2" t="str">
+        <v>Dang Nguyen_2025-3-5.xlsx</v>
+      </c>
+      <c r="BH2" t="str">
+        <v>Dang Nguyen_2025-3-8.xlsx</v>
+      </c>
+      <c r="BI2" t="str">
+        <v>Dang Nguyen_2025-4-1.xlsx</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v>Dang Nguyen_2025-4-10.xlsx</v>
+      </c>
+      <c r="BK2" t="str">
+        <v>Dang Nguyen_2025-4-13.xlsx</v>
+      </c>
+      <c r="BL2" t="str">
+        <v>Dang Nguyen_2025-4-14.xlsx</v>
+      </c>
+      <c r="BM2" t="str">
+        <v>Dang Nguyen_2025-4-15.xlsx</v>
+      </c>
+      <c r="BN2" t="str">
+        <v>Dang Nguyen_2025-4-16.xlsx</v>
+      </c>
+      <c r="BO2" t="str">
+        <v>Dang Nguyen_2025-4-18.xlsx</v>
+      </c>
+      <c r="BP2" t="str">
+        <v>Dang Nguyen_2025-4-20.xlsx</v>
+      </c>
+      <c r="BQ2" t="str">
+        <v>Dang Nguyen_2025-4-21.xlsx</v>
+      </c>
+      <c r="BR2" t="str">
+        <v>Dang Nguyen_2025-4-24.xlsx</v>
+      </c>
+      <c r="BS2" t="str">
+        <v>Dang Nguyen_2025-4-25.xlsx</v>
+      </c>
+      <c r="BT2" t="str">
+        <v>Dang Nguyen_2025-4-5.xlsx</v>
+      </c>
+      <c r="BU2" t="str">
+        <v>Dang Nguyen_2025-4-8.xlsx</v>
+      </c>
+      <c r="BV2" t="str">
+        <v>Dang Nguyen_2025-4-9.xlsx</v>
+      </c>
+      <c r="BW2" t="str">
+        <v>Dang Nguyen_2025-5-10.xlsx</v>
+      </c>
+      <c r="BX2" t="str">
+        <v>Dang Nguyen_2025-5-13.xlsx</v>
+      </c>
+      <c r="BY2" t="str">
+        <v>Dang Nguyen_2025-5-17.xlsx</v>
+      </c>
+      <c r="BZ2" t="str">
+        <v>Dang Nguyen_2025-5-19.xlsx</v>
+      </c>
+      <c r="CA2" t="str">
+        <v>Dang Nguyen_2025-5-2.xlsx</v>
+      </c>
+      <c r="CB2" t="str">
+        <v>Dang Nguyen_2025-5-23.xlsx</v>
+      </c>
+      <c r="CC2" t="str">
+        <v>Dang Nguyen_2025-5-27.xlsx</v>
+      </c>
+      <c r="CD2" t="str">
+        <v>Dang Nguyen_2025-5-30.xlsx</v>
+      </c>
+      <c r="CE2" t="str">
+        <v>Dang Nguyen_2025-5-4.xlsx</v>
+      </c>
+      <c r="CF2" t="str">
+        <v>Dang Nguyen_2025-5-6.xlsx</v>
+      </c>
+      <c r="CG2" t="str">
+        <v>Dang Nguyen_2025-5-9.xlsx</v>
+      </c>
+      <c r="CH2" t="str">
+        <v>Dang Nguyen_2025-6-10.xlsx</v>
+      </c>
+      <c r="CI2" t="str">
+        <v>Dang Nguyen_2025-6-13.xlsx</v>
+      </c>
+      <c r="CJ2" t="str">
+        <v>Dang Nguyen_2025-6-15.xlsx</v>
+      </c>
+      <c r="CK2" t="str">
+        <v>Dang Nguyen_2025-6-16.xlsx</v>
+      </c>
+      <c r="CL2" t="str">
+        <v>Dang Nguyen_2025-6-2.xlsx</v>
+      </c>
+      <c r="CM2" t="str">
+        <v>Dang Nguyen_2025-6-20.xlsx</v>
+      </c>
+      <c r="CN2" t="str">
+        <v>Dang Nguyen_2025-6-22.xlsx</v>
+      </c>
+      <c r="CO2" t="str">
+        <v>Dang Nguyen_2025-6-23.xlsx</v>
+      </c>
+      <c r="CP2" t="str">
+        <v>Dang Nguyen_2025-6-25.xlsx</v>
+      </c>
+      <c r="CQ2" t="str">
+        <v>Dang Nguyen_2025-6-28.xlsx</v>
+      </c>
+      <c r="CR2" t="str">
+        <v>Dang Nguyen_2025-6-30.xlsx</v>
+      </c>
+      <c r="CS2" t="str">
+        <v>Dang Nguyen_2025-6-4.xlsx</v>
+      </c>
+      <c r="CT2" t="str">
+        <v>Dang Nguyen_2025-6-7.xlsx</v>
+      </c>
+      <c r="CU2" t="str">
+        <v>Dang Nguyen_2025-7-11.xlsx</v>
+      </c>
+      <c r="CV2" t="str">
+        <v>Dang Nguyen_2025-7-12.xlsx</v>
+      </c>
+      <c r="CW2" t="str">
+        <v>Dang Nguyen_2025-7-15.xlsx</v>
+      </c>
+      <c r="CX2" t="str">
+        <v>Dang Nguyen_2025-7-18.xlsx</v>
+      </c>
+      <c r="CY2" t="str">
+        <v>Dang Nguyen_2025-7-19.xlsx</v>
+      </c>
+      <c r="CZ2" t="str">
+        <v>Dang Nguyen_2025-7-2.xlsx</v>
+      </c>
+      <c r="DA2" t="str">
+        <v>Dang Nguyen_2025-7-20.xlsx</v>
+      </c>
+      <c r="DB2" t="str">
+        <v>Dang Nguyen_2025-7-22.xlsx</v>
+      </c>
+      <c r="DC2" t="str">
+        <v>Dang Nguyen_2025-7-24.xlsx</v>
+      </c>
+      <c r="DD2" t="str">
+        <v>Dang Nguyen_2025-7-25.xlsx</v>
+      </c>
+      <c r="DE2" t="str">
+        <v>Dang Nguyen_2025-7-27.xlsx</v>
+      </c>
+      <c r="DF2" t="str">
+        <v>Dang Nguyen_2025-7-29.xlsx</v>
+      </c>
+      <c r="DG2" t="str">
+        <v>Dang Nguyen_2025-7-3.xlsx</v>
+      </c>
+      <c r="DH2" t="str">
+        <v>Dang Nguyen_2025-7-31.xlsx</v>
+      </c>
+      <c r="DI2" t="str">
+        <v>Dang Nguyen_2025-7-7.xlsx</v>
+      </c>
+      <c r="DJ2" t="str">
+        <v>Dang Nguyen_2025-7-8.xlsx</v>
+      </c>
+      <c r="DK2" t="str">
+        <v>Dang Nguyen_2025-7-9.xlsx</v>
+      </c>
+      <c r="DL2" t="str">
+        <v>Dang Nguyen_2025-8-11.xlsx</v>
+      </c>
+      <c r="DM2" t="str">
+        <v>Dang Nguyen_2025-8-13.xlsx</v>
+      </c>
+      <c r="DN2" t="str">
+        <v>Dang Nguyen_2025-8-16.xlsx</v>
+      </c>
+      <c r="DO2" t="str">
+        <v>Dang Nguyen_2025-8-17.xlsx</v>
+      </c>
+      <c r="DP2" t="str">
+        <v>Dang Nguyen_2025-8-19.xlsx</v>
+      </c>
+      <c r="DQ2" t="str">
+        <v>Dang Nguyen_2025-8-2.xlsx</v>
+      </c>
+      <c r="DR2" t="str">
+        <v>Dang Nguyen_2025-8-20.xlsx</v>
+      </c>
+      <c r="DS2" t="str">
+        <v>Dang Nguyen_2025-8-23.xlsx</v>
+      </c>
+      <c r="DT2" t="str">
+        <v>Dang Nguyen_2025-8-26.xlsx</v>
+      </c>
+      <c r="DU2" t="str">
+        <v>Dang Nguyen_2025-8-4.xlsx</v>
+      </c>
+      <c r="DV2" t="str">
+        <v>Dang Nguyen_2025-8-5.xlsx</v>
+      </c>
+      <c r="DW2" t="str">
+        <v>Dang Nguyen_2025-8-9.xlsx</v>
+      </c>
+      <c r="DX2" t="str">
+        <v>Dang Nguyen_2025-9-2.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>Fresh bloom Flowers</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Fresh bloom Flowers_2024-11-12.xlsx</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Fresh bloom Flowers_2024-11-16.xlsx</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Fresh bloom Flowers_2024-12-24.xlsx</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>International Ever Green</v>
+      </c>
+      <c r="B4" t="str">
+        <v>International Ever Green_2024-12-24.xlsx</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Nha Thu</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nha Thu_2024-11-16.xlsx</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Nha Thu_2024-11-21.xlsx</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Nha Thu_2024-11-29.xlsx</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Nha Thu_2024-12-19.xlsx</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Nha Thu_2024-12-24.xlsx</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Nha Thu_2024-12-6.xlsx</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Nha Thu_2024-12-9.xlsx</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Nha Thu_2025-1-15.xlsx</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Nha Thu_2025-2-5.xlsx</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Nha Thu_2025-3-10.xlsx</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nha Thu_2025-3-2.xlsx</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Nha Thu_2025-3-25.xlsx</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Nha Thu_2025-4-1.xlsx</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Nha Thu_2025-4-27.xlsx</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Nha Thu_2025-4-4.xlsx</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Nha Thu_2025-5-21.xlsx</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Nha Thu_2025-5-26.xlsx</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Nha Thu_2025-5-31.xlsx</v>
+      </c>
+      <c r="T5" t="str">
+        <v>Nha Thu_2025-5-7.xlsx</v>
+      </c>
+      <c r="U5" t="str">
+        <v>Nha Thu_2025-5-9.xlsx</v>
+      </c>
+      <c r="V5" t="str">
+        <v>Nha Thu_2025-6-18.xlsx</v>
+      </c>
+      <c r="W5" t="str">
+        <v>Nha Thu_2025-6-21.xlsx</v>
+      </c>
+      <c r="X5" t="str">
+        <v>Nha Thu_2025-6-27.xlsx</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Nha Thu_2025-6-29.xlsx</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>Nha Thu_2025-6-3.xlsx</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>Nha Thu_2025-6-6.xlsx</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>Nha Thu_2025-6-9.xlsx</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>Nha Thu_2025-7-10.xlsx</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>Nha Thu_2025-7-14.xlsx</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>Nha Thu_2025-7-15.xlsx</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>Nha Thu_2025-7-16.xlsx</v>
+      </c>
+      <c r="AG5" t="str">
+        <v>Nha Thu_2025-7-23.xlsx</v>
+      </c>
+      <c r="AH5" t="str">
+        <v>Nha Thu_2025-7-28.xlsx</v>
+      </c>
+      <c r="AI5" t="str">
+        <v>Nha Thu_2025-7-5.xlsx</v>
+      </c>
+      <c r="AJ5" t="str">
+        <v>Nha Thu_2025-8-14.xlsx</v>
+      </c>
+      <c r="AK5" t="str">
+        <v>Nha Thu_2025-8-16.xlsx</v>
+      </c>
+      <c r="AL5" t="str">
+        <v>Nha Thu_2025-8-18.xlsx</v>
+      </c>
+      <c r="AM5" t="str">
+        <v>Nha Thu_2025-8-2.xlsx</v>
+      </c>
+      <c r="AN5" t="str">
+        <v>Nha Thu_2025-8-29.xlsx</v>
+      </c>
+      <c r="AO5" t="str">
+        <v>Nha Thu_2025-8-3.xlsx</v>
+      </c>
+      <c r="AP5" t="str">
+        <v>Nha Thu_2025-8-6.xlsx</v>
+      </c>
+      <c r="AQ5" t="str">
+        <v>Nha Thu_2025-8-7.xlsx</v>
+      </c>
+      <c r="AR5" t="str">
+        <v>Nha Thu_2025-8-9.xlsx</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Test_2025-5-31.xlsx</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>korean papa</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B7" t="str">
         <v>korean papa_2024-10-24.xlsx</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>name001</v>
+      </c>
+      <c r="B8" t="str">
+        <v>name001_2024-10-29.xlsx</v>
+      </c>
+      <c r="C8" t="str">
+        <v>name001_2025-5-23.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:DX8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DX8"/>
+  <dimension ref="A1:EN8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,124 +787,172 @@
       <c r="DX1" t="str">
         <v>Order 127</v>
       </c>
+      <c r="DY1" t="str">
+        <v>Order 128</v>
+      </c>
+      <c r="DZ1" t="str">
+        <v>Order 129</v>
+      </c>
+      <c r="EA1" t="str">
+        <v>Order 130</v>
+      </c>
+      <c r="EB1" t="str">
+        <v>Order 131</v>
+      </c>
+      <c r="EC1" t="str">
+        <v>Order 132</v>
+      </c>
+      <c r="ED1" t="str">
+        <v>Order 133</v>
+      </c>
+      <c r="EE1" t="str">
+        <v>Order 134</v>
+      </c>
+      <c r="EF1" t="str">
+        <v>Order 135</v>
+      </c>
+      <c r="EG1" t="str">
+        <v>Order 136</v>
+      </c>
+      <c r="EH1" t="str">
+        <v>Order 137</v>
+      </c>
+      <c r="EI1" t="str">
+        <v>Order 138</v>
+      </c>
+      <c r="EJ1" t="str">
+        <v>Order 139</v>
+      </c>
+      <c r="EK1" t="str">
+        <v>Order 140</v>
+      </c>
+      <c r="EL1" t="str">
+        <v>Order 141</v>
+      </c>
+      <c r="EM1" t="str">
+        <v>Order 142</v>
+      </c>
+      <c r="EN1" t="str">
+        <v>Order 143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Dang Nguyen</v>
       </c>
       <c r="B2" t="str">
-        <v>Dang Nguyen_2024-10-26.xlsx</v>
+        <v>Dang Nguyen_2024-10-28.xlsx</v>
       </c>
       <c r="C2" t="str">
-        <v>Dang Nguyen_2024-10-27.xlsx</v>
+        <v>Dang Nguyen_2024-10-29.xlsx</v>
       </c>
       <c r="D2" t="str">
-        <v>Dang Nguyen_2024-10-28.xlsx</v>
+        <v>Dang Nguyen_2024-10-31.xlsx</v>
       </c>
       <c r="E2" t="str">
-        <v>Dang Nguyen_2024-10-29.xlsx</v>
+        <v>Dang Nguyen_2024-11-1.xlsx</v>
       </c>
       <c r="F2" t="str">
-        <v>Dang Nguyen_2024-10-31.xlsx</v>
+        <v>Dang Nguyen_2024-11-11.xlsx</v>
       </c>
       <c r="G2" t="str">
-        <v>Dang Nguyen_2024-11-1.xlsx</v>
+        <v>Dang Nguyen_2024-11-12.xlsx</v>
       </c>
       <c r="H2" t="str">
-        <v>Dang Nguyen_2024-11-11.xlsx</v>
+        <v>Dang Nguyen_2024-11-13.xlsx</v>
       </c>
       <c r="I2" t="str">
-        <v>Dang Nguyen_2024-11-12.xlsx</v>
+        <v>Dang Nguyen_2024-11-15.xlsx</v>
       </c>
       <c r="J2" t="str">
-        <v>Dang Nguyen_2024-11-13.xlsx</v>
+        <v>Dang Nguyen_2024-11-16.xlsx</v>
       </c>
       <c r="K2" t="str">
-        <v>Dang Nguyen_2024-11-15.xlsx</v>
+        <v>Dang Nguyen_2024-11-17.xlsx</v>
       </c>
       <c r="L2" t="str">
-        <v>Dang Nguyen_2024-11-16.xlsx</v>
+        <v>Dang Nguyen_2024-11-20.xlsx</v>
       </c>
       <c r="M2" t="str">
-        <v>Dang Nguyen_2024-11-17.xlsx</v>
+        <v>Dang Nguyen_2024-11-21.xlsx</v>
       </c>
       <c r="N2" t="str">
-        <v>Dang Nguyen_2024-11-20.xlsx</v>
+        <v>Dang Nguyen_2024-11-24.xlsx</v>
       </c>
       <c r="O2" t="str">
-        <v>Dang Nguyen_2024-11-21.xlsx</v>
+        <v>Dang Nguyen_2024-11-29.xlsx</v>
       </c>
       <c r="P2" t="str">
-        <v>Dang Nguyen_2024-11-24.xlsx</v>
+        <v>Dang Nguyen_2024-11-4.xlsx</v>
       </c>
       <c r="Q2" t="str">
-        <v>Dang Nguyen_2024-11-29.xlsx</v>
+        <v>Dang Nguyen_2024-11-6.xlsx</v>
       </c>
       <c r="R2" t="str">
-        <v>Dang Nguyen_2024-11-4.xlsx</v>
+        <v>Dang Nguyen_2024-11-7.xlsx</v>
       </c>
       <c r="S2" t="str">
-        <v>Dang Nguyen_2024-11-6.xlsx</v>
+        <v>Dang Nguyen_2024-11-9.xlsx</v>
       </c>
       <c r="T2" t="str">
-        <v>Dang Nguyen_2024-11-7.xlsx</v>
+        <v>Dang Nguyen_2024-12-11.xlsx</v>
       </c>
       <c r="U2" t="str">
-        <v>Dang Nguyen_2024-11-9.xlsx</v>
+        <v>Dang Nguyen_2024-12-17.xlsx</v>
       </c>
       <c r="V2" t="str">
-        <v>Dang Nguyen_2024-12-11.xlsx</v>
+        <v>Dang Nguyen_2024-12-18.xlsx</v>
       </c>
       <c r="W2" t="str">
-        <v>Dang Nguyen_2024-12-17.xlsx</v>
+        <v>Dang Nguyen_2024-12-2.xlsx</v>
       </c>
       <c r="X2" t="str">
-        <v>Dang Nguyen_2024-12-18.xlsx</v>
+        <v>Dang Nguyen_2024-12-22.xlsx</v>
       </c>
       <c r="Y2" t="str">
-        <v>Dang Nguyen_2024-12-2.xlsx</v>
+        <v>Dang Nguyen_2024-12-24.xlsx</v>
       </c>
       <c r="Z2" t="str">
-        <v>Dang Nguyen_2024-12-22.xlsx</v>
+        <v>Dang Nguyen_2024-12-25.xlsx</v>
       </c>
       <c r="AA2" t="str">
-        <v>Dang Nguyen_2024-12-24.xlsx</v>
+        <v>Dang Nguyen_2024-12-26.xlsx</v>
       </c>
       <c r="AB2" t="str">
-        <v>Dang Nguyen_2024-12-25.xlsx</v>
+        <v>Dang Nguyen_2024-12-28.xlsx</v>
       </c>
       <c r="AC2" t="str">
-        <v>Dang Nguyen_2024-12-26.xlsx</v>
+        <v>Dang Nguyen_2024-12-29.xlsx</v>
       </c>
       <c r="AD2" t="str">
-        <v>Dang Nguyen_2024-12-28.xlsx</v>
+        <v>Dang Nguyen_2024-12-31.xlsx</v>
       </c>
       <c r="AE2" t="str">
-        <v>Dang Nguyen_2024-12-29.xlsx</v>
+        <v>Dang Nguyen_2024-12-6.xlsx</v>
       </c>
       <c r="AF2" t="str">
-        <v>Dang Nguyen_2024-12-31.xlsx</v>
+        <v>Dang Nguyen_2024-12-9.xlsx</v>
       </c>
       <c r="AG2" t="str">
-        <v>Dang Nguyen_2024-12-6.xlsx</v>
+        <v>Dang Nguyen_2025-1-11.xlsx</v>
       </c>
       <c r="AH2" t="str">
-        <v>Dang Nguyen_2024-12-9.xlsx</v>
+        <v>Dang Nguyen_2025-1-15.xlsx</v>
       </c>
       <c r="AI2" t="str">
-        <v>Dang Nguyen_2025-1-11.xlsx</v>
+        <v>Dang Nguyen_2025-1-19.xlsx</v>
       </c>
       <c r="AJ2" t="str">
-        <v>Dang Nguyen_2025-1-15.xlsx</v>
+        <v>Dang Nguyen_2025-1-4.xlsx</v>
       </c>
       <c r="AK2" t="str">
-        <v>Dang Nguyen_2025-1-19.xlsx</v>
+        <v>Dang Nguyen_2025-1-6.xlsx</v>
       </c>
       <c r="AL2" t="str">
-        <v>Dang Nguyen_2025-1-4.xlsx</v>
+        <v>Dang Nguyen_2025-10-3.xlsx</v>
       </c>
       <c r="AM2" t="str">
-        <v>Dang Nguyen_2025-1-6.xlsx</v>
+        <v>Dang Nguyen_2025-10-5.xlsx</v>
       </c>
       <c r="AN2" t="str">
         <v>Dang Nguyen_2025-2-1.xlsx</v>
@@ -1171,7 +1219,55 @@
         <v>Dang Nguyen_2025-8-9.xlsx</v>
       </c>
       <c r="DX2" t="str">
+        <v>Dang Nguyen_2025-9-10.xlsx</v>
+      </c>
+      <c r="DY2" t="str">
+        <v>Dang Nguyen_2025-9-13.xlsx</v>
+      </c>
+      <c r="DZ2" t="str">
+        <v>Dang Nguyen_2025-9-15.xlsx</v>
+      </c>
+      <c r="EA2" t="str">
+        <v>Dang Nguyen_2025-9-16.xlsx</v>
+      </c>
+      <c r="EB2" t="str">
+        <v>Dang Nguyen_2025-9-17.xlsx</v>
+      </c>
+      <c r="EC2" t="str">
+        <v>Dang Nguyen_2025-9-18.xlsx</v>
+      </c>
+      <c r="ED2" t="str">
         <v>Dang Nguyen_2025-9-2.xlsx</v>
+      </c>
+      <c r="EE2" t="str">
+        <v>Dang Nguyen_2025-9-20.xlsx</v>
+      </c>
+      <c r="EF2" t="str">
+        <v>Dang Nguyen_2025-9-23.xlsx</v>
+      </c>
+      <c r="EG2" t="str">
+        <v>Dang Nguyen_2025-9-27.xlsx</v>
+      </c>
+      <c r="EH2" t="str">
+        <v>Dang Nguyen_2025-9-28.xlsx</v>
+      </c>
+      <c r="EI2" t="str">
+        <v>Dang Nguyen_2025-9-29.xlsx</v>
+      </c>
+      <c r="EJ2" t="str">
+        <v>Dang Nguyen_2025-9-3.xlsx</v>
+      </c>
+      <c r="EK2" t="str">
+        <v>Dang Nguyen_2025-9-30.xlsx</v>
+      </c>
+      <c r="EL2" t="str">
+        <v>Dang Nguyen_2025-9-4.xlsx</v>
+      </c>
+      <c r="EM2" t="str">
+        <v>Dang Nguyen_2025-9-6.xlsx</v>
+      </c>
+      <c r="EN2" t="str">
+        <v>Dang Nguyen_2025-9-8.xlsx</v>
       </c>
     </row>
     <row r="3">
@@ -1187,6 +1283,9 @@
       <c r="D3" t="str">
         <v>Fresh bloom Flowers_2024-12-24.xlsx</v>
       </c>
+      <c r="E3" t="str">
+        <v>Fresh bloom Flowers_2025-9-25.xlsx</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1225,109 +1324,133 @@
         <v>Nha Thu_2025-1-15.xlsx</v>
       </c>
       <c r="J5" t="str">
+        <v>Nha Thu_2025-10-1.xlsx</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Nha Thu_2025-10-3.xlsx</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nha Thu_2025-10-5.xlsx</v>
+      </c>
+      <c r="M5" t="str">
         <v>Nha Thu_2025-2-5.xlsx</v>
       </c>
-      <c r="K5" t="str">
+      <c r="N5" t="str">
         <v>Nha Thu_2025-3-10.xlsx</v>
       </c>
-      <c r="L5" t="str">
+      <c r="O5" t="str">
         <v>Nha Thu_2025-3-2.xlsx</v>
       </c>
-      <c r="M5" t="str">
+      <c r="P5" t="str">
         <v>Nha Thu_2025-3-25.xlsx</v>
       </c>
-      <c r="N5" t="str">
+      <c r="Q5" t="str">
         <v>Nha Thu_2025-4-1.xlsx</v>
       </c>
-      <c r="O5" t="str">
+      <c r="R5" t="str">
         <v>Nha Thu_2025-4-27.xlsx</v>
       </c>
-      <c r="P5" t="str">
+      <c r="S5" t="str">
         <v>Nha Thu_2025-4-4.xlsx</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="T5" t="str">
         <v>Nha Thu_2025-5-21.xlsx</v>
       </c>
-      <c r="R5" t="str">
+      <c r="U5" t="str">
         <v>Nha Thu_2025-5-26.xlsx</v>
       </c>
-      <c r="S5" t="str">
+      <c r="V5" t="str">
         <v>Nha Thu_2025-5-31.xlsx</v>
       </c>
-      <c r="T5" t="str">
+      <c r="W5" t="str">
         <v>Nha Thu_2025-5-7.xlsx</v>
       </c>
-      <c r="U5" t="str">
+      <c r="X5" t="str">
         <v>Nha Thu_2025-5-9.xlsx</v>
       </c>
-      <c r="V5" t="str">
+      <c r="Y5" t="str">
         <v>Nha Thu_2025-6-18.xlsx</v>
       </c>
-      <c r="W5" t="str">
+      <c r="Z5" t="str">
         <v>Nha Thu_2025-6-21.xlsx</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AA5" t="str">
         <v>Nha Thu_2025-6-27.xlsx</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AB5" t="str">
         <v>Nha Thu_2025-6-29.xlsx</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AC5" t="str">
         <v>Nha Thu_2025-6-3.xlsx</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AD5" t="str">
         <v>Nha Thu_2025-6-6.xlsx</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AE5" t="str">
         <v>Nha Thu_2025-6-9.xlsx</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AF5" t="str">
         <v>Nha Thu_2025-7-10.xlsx</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AG5" t="str">
         <v>Nha Thu_2025-7-14.xlsx</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AH5" t="str">
         <v>Nha Thu_2025-7-15.xlsx</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AI5" t="str">
         <v>Nha Thu_2025-7-16.xlsx</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AJ5" t="str">
         <v>Nha Thu_2025-7-23.xlsx</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AK5" t="str">
         <v>Nha Thu_2025-7-28.xlsx</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AL5" t="str">
         <v>Nha Thu_2025-7-5.xlsx</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AM5" t="str">
         <v>Nha Thu_2025-8-14.xlsx</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AN5" t="str">
         <v>Nha Thu_2025-8-16.xlsx</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AO5" t="str">
         <v>Nha Thu_2025-8-18.xlsx</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AP5" t="str">
         <v>Nha Thu_2025-8-2.xlsx</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AQ5" t="str">
         <v>Nha Thu_2025-8-29.xlsx</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AR5" t="str">
         <v>Nha Thu_2025-8-3.xlsx</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AS5" t="str">
         <v>Nha Thu_2025-8-6.xlsx</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AT5" t="str">
         <v>Nha Thu_2025-8-7.xlsx</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="AU5" t="str">
         <v>Nha Thu_2025-8-9.xlsx</v>
+      </c>
+      <c r="AV5" t="str">
+        <v>Nha Thu_2025-9-13.xlsx</v>
+      </c>
+      <c r="AW5" t="str">
+        <v>Nha Thu_2025-9-2.xlsx</v>
+      </c>
+      <c r="AX5" t="str">
+        <v>Nha Thu_2025-9-20.xlsx</v>
+      </c>
+      <c r="AY5" t="str">
+        <v>Nha Thu_2025-9-25.xlsx</v>
+      </c>
+      <c r="AZ5" t="str">
+        <v>Nha Thu_2025-9-27.xlsx</v>
       </c>
     </row>
     <row r="6">
@@ -1359,7 +1482,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:DX8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:EN8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EN8"/>
+  <dimension ref="A1:EV9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,6 +835,30 @@
       <c r="EN1" t="str">
         <v>Order 143</v>
       </c>
+      <c r="EO1" t="str">
+        <v>Order 144</v>
+      </c>
+      <c r="EP1" t="str">
+        <v>Order 145</v>
+      </c>
+      <c r="EQ1" t="str">
+        <v>Order 146</v>
+      </c>
+      <c r="ER1" t="str">
+        <v>Order 147</v>
+      </c>
+      <c r="ES1" t="str">
+        <v>Order 148</v>
+      </c>
+      <c r="ET1" t="str">
+        <v>Order 149</v>
+      </c>
+      <c r="EU1" t="str">
+        <v>Order 150</v>
+      </c>
+      <c r="EV1" t="str">
+        <v>Order 151</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -949,324 +973,348 @@
         <v>Dang Nguyen_2025-1-6.xlsx</v>
       </c>
       <c r="AL2" t="str">
+        <v>Dang Nguyen_2025-10-11.xlsx</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>Dang Nguyen_2025-10-13.xlsx</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>Dang Nguyen_2025-10-15.xlsx</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>Dang Nguyen_2025-10-19.xlsx</v>
+      </c>
+      <c r="AP2" t="str">
+        <v>Dang Nguyen_2025-10-21.xlsx</v>
+      </c>
+      <c r="AQ2" t="str">
+        <v>Dang Nguyen_2025-10-23.xlsx</v>
+      </c>
+      <c r="AR2" t="str">
         <v>Dang Nguyen_2025-10-3.xlsx</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AS2" t="str">
         <v>Dang Nguyen_2025-10-5.xlsx</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AT2" t="str">
+        <v>Dang Nguyen_2025-10-8.xlsx</v>
+      </c>
+      <c r="AU2" t="str">
+        <v>Dang Nguyen_2025-10-9.xlsx</v>
+      </c>
+      <c r="AV2" t="str">
         <v>Dang Nguyen_2025-2-1.xlsx</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AW2" t="str">
         <v>Dang Nguyen_2025-2-10.xlsx</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AX2" t="str">
         <v>Dang Nguyen_2025-2-15.xlsx</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AY2" t="str">
         <v>Dang Nguyen_2025-2-18.xlsx</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="AZ2" t="str">
         <v>Dang Nguyen_2025-2-20.xlsx</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="BA2" t="str">
         <v>Dang Nguyen_2025-2-24.xlsx</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="BB2" t="str">
         <v>Dang Nguyen_2025-2-3.xlsx</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="BC2" t="str">
         <v>Dang Nguyen_2025-2-5.xlsx</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="BD2" t="str">
         <v>Dang Nguyen_2025-2-7.xlsx</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="BE2" t="str">
         <v>Dang Nguyen_2025-3-11.xlsx</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="BF2" t="str">
         <v>Dang Nguyen_2025-3-12.xlsx</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="BG2" t="str">
         <v>Dang Nguyen_2025-3-13.xlsx</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BH2" t="str">
         <v>Dang Nguyen_2025-3-16.xlsx</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BI2" t="str">
         <v>Dang Nguyen_2025-3-17.xlsx</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BJ2" t="str">
         <v>Dang Nguyen_2025-3-19.xlsx</v>
       </c>
-      <c r="BC2" t="str">
+      <c r="BK2" t="str">
         <v>Dang Nguyen_2025-3-2.xlsx</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BL2" t="str">
         <v>Dang Nguyen_2025-3-26.xlsx</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BM2" t="str">
         <v>Dang Nguyen_2025-3-27.xlsx</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BN2" t="str">
         <v>Dang Nguyen_2025-3-28.xlsx</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BO2" t="str">
         <v>Dang Nguyen_2025-3-5.xlsx</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BP2" t="str">
         <v>Dang Nguyen_2025-3-8.xlsx</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BQ2" t="str">
         <v>Dang Nguyen_2025-4-1.xlsx</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BR2" t="str">
         <v>Dang Nguyen_2025-4-10.xlsx</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BS2" t="str">
         <v>Dang Nguyen_2025-4-13.xlsx</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BT2" t="str">
         <v>Dang Nguyen_2025-4-14.xlsx</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BU2" t="str">
         <v>Dang Nguyen_2025-4-15.xlsx</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BV2" t="str">
         <v>Dang Nguyen_2025-4-16.xlsx</v>
       </c>
-      <c r="BO2" t="str">
+      <c r="BW2" t="str">
         <v>Dang Nguyen_2025-4-18.xlsx</v>
       </c>
-      <c r="BP2" t="str">
+      <c r="BX2" t="str">
         <v>Dang Nguyen_2025-4-20.xlsx</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BY2" t="str">
         <v>Dang Nguyen_2025-4-21.xlsx</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BZ2" t="str">
         <v>Dang Nguyen_2025-4-24.xlsx</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="CA2" t="str">
         <v>Dang Nguyen_2025-4-25.xlsx</v>
       </c>
-      <c r="BT2" t="str">
+      <c r="CB2" t="str">
         <v>Dang Nguyen_2025-4-5.xlsx</v>
       </c>
-      <c r="BU2" t="str">
+      <c r="CC2" t="str">
         <v>Dang Nguyen_2025-4-8.xlsx</v>
       </c>
-      <c r="BV2" t="str">
+      <c r="CD2" t="str">
         <v>Dang Nguyen_2025-4-9.xlsx</v>
       </c>
-      <c r="BW2" t="str">
+      <c r="CE2" t="str">
         <v>Dang Nguyen_2025-5-10.xlsx</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="CF2" t="str">
         <v>Dang Nguyen_2025-5-13.xlsx</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="CG2" t="str">
         <v>Dang Nguyen_2025-5-17.xlsx</v>
       </c>
-      <c r="BZ2" t="str">
+      <c r="CH2" t="str">
         <v>Dang Nguyen_2025-5-19.xlsx</v>
       </c>
-      <c r="CA2" t="str">
+      <c r="CI2" t="str">
         <v>Dang Nguyen_2025-5-2.xlsx</v>
       </c>
-      <c r="CB2" t="str">
+      <c r="CJ2" t="str">
         <v>Dang Nguyen_2025-5-23.xlsx</v>
       </c>
-      <c r="CC2" t="str">
+      <c r="CK2" t="str">
         <v>Dang Nguyen_2025-5-27.xlsx</v>
       </c>
-      <c r="CD2" t="str">
+      <c r="CL2" t="str">
         <v>Dang Nguyen_2025-5-30.xlsx</v>
       </c>
-      <c r="CE2" t="str">
+      <c r="CM2" t="str">
         <v>Dang Nguyen_2025-5-4.xlsx</v>
       </c>
-      <c r="CF2" t="str">
+      <c r="CN2" t="str">
         <v>Dang Nguyen_2025-5-6.xlsx</v>
       </c>
-      <c r="CG2" t="str">
+      <c r="CO2" t="str">
         <v>Dang Nguyen_2025-5-9.xlsx</v>
       </c>
-      <c r="CH2" t="str">
+      <c r="CP2" t="str">
         <v>Dang Nguyen_2025-6-10.xlsx</v>
       </c>
-      <c r="CI2" t="str">
+      <c r="CQ2" t="str">
         <v>Dang Nguyen_2025-6-13.xlsx</v>
       </c>
-      <c r="CJ2" t="str">
+      <c r="CR2" t="str">
         <v>Dang Nguyen_2025-6-15.xlsx</v>
       </c>
-      <c r="CK2" t="str">
+      <c r="CS2" t="str">
         <v>Dang Nguyen_2025-6-16.xlsx</v>
       </c>
-      <c r="CL2" t="str">
+      <c r="CT2" t="str">
         <v>Dang Nguyen_2025-6-2.xlsx</v>
       </c>
-      <c r="CM2" t="str">
+      <c r="CU2" t="str">
         <v>Dang Nguyen_2025-6-20.xlsx</v>
       </c>
-      <c r="CN2" t="str">
+      <c r="CV2" t="str">
         <v>Dang Nguyen_2025-6-22.xlsx</v>
       </c>
-      <c r="CO2" t="str">
+      <c r="CW2" t="str">
         <v>Dang Nguyen_2025-6-23.xlsx</v>
       </c>
-      <c r="CP2" t="str">
+      <c r="CX2" t="str">
         <v>Dang Nguyen_2025-6-25.xlsx</v>
       </c>
-      <c r="CQ2" t="str">
+      <c r="CY2" t="str">
         <v>Dang Nguyen_2025-6-28.xlsx</v>
       </c>
-      <c r="CR2" t="str">
+      <c r="CZ2" t="str">
         <v>Dang Nguyen_2025-6-30.xlsx</v>
       </c>
-      <c r="CS2" t="str">
+      <c r="DA2" t="str">
         <v>Dang Nguyen_2025-6-4.xlsx</v>
       </c>
-      <c r="CT2" t="str">
+      <c r="DB2" t="str">
         <v>Dang Nguyen_2025-6-7.xlsx</v>
       </c>
-      <c r="CU2" t="str">
+      <c r="DC2" t="str">
         <v>Dang Nguyen_2025-7-11.xlsx</v>
       </c>
-      <c r="CV2" t="str">
+      <c r="DD2" t="str">
         <v>Dang Nguyen_2025-7-12.xlsx</v>
       </c>
-      <c r="CW2" t="str">
+      <c r="DE2" t="str">
         <v>Dang Nguyen_2025-7-15.xlsx</v>
       </c>
-      <c r="CX2" t="str">
+      <c r="DF2" t="str">
         <v>Dang Nguyen_2025-7-18.xlsx</v>
       </c>
-      <c r="CY2" t="str">
+      <c r="DG2" t="str">
         <v>Dang Nguyen_2025-7-19.xlsx</v>
       </c>
-      <c r="CZ2" t="str">
+      <c r="DH2" t="str">
         <v>Dang Nguyen_2025-7-2.xlsx</v>
       </c>
-      <c r="DA2" t="str">
+      <c r="DI2" t="str">
         <v>Dang Nguyen_2025-7-20.xlsx</v>
       </c>
-      <c r="DB2" t="str">
+      <c r="DJ2" t="str">
         <v>Dang Nguyen_2025-7-22.xlsx</v>
       </c>
-      <c r="DC2" t="str">
+      <c r="DK2" t="str">
         <v>Dang Nguyen_2025-7-24.xlsx</v>
       </c>
-      <c r="DD2" t="str">
+      <c r="DL2" t="str">
         <v>Dang Nguyen_2025-7-25.xlsx</v>
       </c>
-      <c r="DE2" t="str">
+      <c r="DM2" t="str">
         <v>Dang Nguyen_2025-7-27.xlsx</v>
       </c>
-      <c r="DF2" t="str">
+      <c r="DN2" t="str">
         <v>Dang Nguyen_2025-7-29.xlsx</v>
       </c>
-      <c r="DG2" t="str">
+      <c r="DO2" t="str">
         <v>Dang Nguyen_2025-7-3.xlsx</v>
       </c>
-      <c r="DH2" t="str">
+      <c r="DP2" t="str">
         <v>Dang Nguyen_2025-7-31.xlsx</v>
       </c>
-      <c r="DI2" t="str">
+      <c r="DQ2" t="str">
         <v>Dang Nguyen_2025-7-7.xlsx</v>
       </c>
-      <c r="DJ2" t="str">
+      <c r="DR2" t="str">
         <v>Dang Nguyen_2025-7-8.xlsx</v>
       </c>
-      <c r="DK2" t="str">
+      <c r="DS2" t="str">
         <v>Dang Nguyen_2025-7-9.xlsx</v>
       </c>
-      <c r="DL2" t="str">
+      <c r="DT2" t="str">
         <v>Dang Nguyen_2025-8-11.xlsx</v>
       </c>
-      <c r="DM2" t="str">
+      <c r="DU2" t="str">
         <v>Dang Nguyen_2025-8-13.xlsx</v>
       </c>
-      <c r="DN2" t="str">
+      <c r="DV2" t="str">
         <v>Dang Nguyen_2025-8-16.xlsx</v>
       </c>
-      <c r="DO2" t="str">
+      <c r="DW2" t="str">
         <v>Dang Nguyen_2025-8-17.xlsx</v>
       </c>
-      <c r="DP2" t="str">
+      <c r="DX2" t="str">
         <v>Dang Nguyen_2025-8-19.xlsx</v>
       </c>
-      <c r="DQ2" t="str">
+      <c r="DY2" t="str">
         <v>Dang Nguyen_2025-8-2.xlsx</v>
       </c>
-      <c r="DR2" t="str">
+      <c r="DZ2" t="str">
         <v>Dang Nguyen_2025-8-20.xlsx</v>
       </c>
-      <c r="DS2" t="str">
+      <c r="EA2" t="str">
         <v>Dang Nguyen_2025-8-23.xlsx</v>
       </c>
-      <c r="DT2" t="str">
+      <c r="EB2" t="str">
         <v>Dang Nguyen_2025-8-26.xlsx</v>
       </c>
-      <c r="DU2" t="str">
+      <c r="EC2" t="str">
         <v>Dang Nguyen_2025-8-4.xlsx</v>
       </c>
-      <c r="DV2" t="str">
+      <c r="ED2" t="str">
         <v>Dang Nguyen_2025-8-5.xlsx</v>
       </c>
-      <c r="DW2" t="str">
+      <c r="EE2" t="str">
         <v>Dang Nguyen_2025-8-9.xlsx</v>
       </c>
-      <c r="DX2" t="str">
+      <c r="EF2" t="str">
         <v>Dang Nguyen_2025-9-10.xlsx</v>
       </c>
-      <c r="DY2" t="str">
+      <c r="EG2" t="str">
         <v>Dang Nguyen_2025-9-13.xlsx</v>
       </c>
-      <c r="DZ2" t="str">
+      <c r="EH2" t="str">
         <v>Dang Nguyen_2025-9-15.xlsx</v>
       </c>
-      <c r="EA2" t="str">
+      <c r="EI2" t="str">
         <v>Dang Nguyen_2025-9-16.xlsx</v>
       </c>
-      <c r="EB2" t="str">
+      <c r="EJ2" t="str">
         <v>Dang Nguyen_2025-9-17.xlsx</v>
       </c>
-      <c r="EC2" t="str">
+      <c r="EK2" t="str">
         <v>Dang Nguyen_2025-9-18.xlsx</v>
       </c>
-      <c r="ED2" t="str">
+      <c r="EL2" t="str">
         <v>Dang Nguyen_2025-9-2.xlsx</v>
       </c>
-      <c r="EE2" t="str">
+      <c r="EM2" t="str">
         <v>Dang Nguyen_2025-9-20.xlsx</v>
       </c>
-      <c r="EF2" t="str">
+      <c r="EN2" t="str">
         <v>Dang Nguyen_2025-9-23.xlsx</v>
       </c>
-      <c r="EG2" t="str">
+      <c r="EO2" t="str">
         <v>Dang Nguyen_2025-9-27.xlsx</v>
       </c>
-      <c r="EH2" t="str">
+      <c r="EP2" t="str">
         <v>Dang Nguyen_2025-9-28.xlsx</v>
       </c>
-      <c r="EI2" t="str">
+      <c r="EQ2" t="str">
         <v>Dang Nguyen_2025-9-29.xlsx</v>
       </c>
-      <c r="EJ2" t="str">
+      <c r="ER2" t="str">
         <v>Dang Nguyen_2025-9-3.xlsx</v>
       </c>
-      <c r="EK2" t="str">
+      <c r="ES2" t="str">
         <v>Dang Nguyen_2025-9-30.xlsx</v>
       </c>
-      <c r="EL2" t="str">
+      <c r="ET2" t="str">
         <v>Dang Nguyen_2025-9-4.xlsx</v>
       </c>
-      <c r="EM2" t="str">
+      <c r="EU2" t="str">
         <v>Dang Nguyen_2025-9-6.xlsx</v>
       </c>
-      <c r="EN2" t="str">
+      <c r="EV2" t="str">
         <v>Dang Nguyen_2025-9-8.xlsx</v>
       </c>
     </row>
@@ -1284,6 +1332,15 @@
         <v>Fresh bloom Flowers_2024-12-24.xlsx</v>
       </c>
       <c r="E3" t="str">
+        <v>Fresh bloom Flowers_2025-10-14.xlsx</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Fresh bloom Flowers_2025-10-15.xlsx</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Fresh bloom Flowers_2025-10-7.xlsx</v>
+      </c>
+      <c r="H3" t="str">
         <v>Fresh bloom Flowers_2025-9-25.xlsx</v>
       </c>
     </row>
@@ -1294,6 +1351,9 @@
       <c r="B4" t="str">
         <v>International Ever Green_2024-12-24.xlsx</v>
       </c>
+      <c r="C4" t="str">
+        <v>International Ever Green_2025-10-15.xlsx</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1327,129 +1387,144 @@
         <v>Nha Thu_2025-10-1.xlsx</v>
       </c>
       <c r="K5" t="str">
+        <v>Nha Thu_2025-10-12.xlsx</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nha Thu_2025-10-13.xlsx</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Nha Thu_2025-10-14.xlsx</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Nha Thu_2025-10-15.xlsx</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Nha Thu_2025-10-17.xlsx</v>
+      </c>
+      <c r="P5" t="str">
         <v>Nha Thu_2025-10-3.xlsx</v>
       </c>
-      <c r="L5" t="str">
+      <c r="Q5" t="str">
         <v>Nha Thu_2025-10-5.xlsx</v>
       </c>
-      <c r="M5" t="str">
+      <c r="R5" t="str">
         <v>Nha Thu_2025-2-5.xlsx</v>
       </c>
-      <c r="N5" t="str">
+      <c r="S5" t="str">
         <v>Nha Thu_2025-3-10.xlsx</v>
       </c>
-      <c r="O5" t="str">
+      <c r="T5" t="str">
         <v>Nha Thu_2025-3-2.xlsx</v>
       </c>
-      <c r="P5" t="str">
+      <c r="U5" t="str">
         <v>Nha Thu_2025-3-25.xlsx</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="V5" t="str">
         <v>Nha Thu_2025-4-1.xlsx</v>
       </c>
-      <c r="R5" t="str">
+      <c r="W5" t="str">
         <v>Nha Thu_2025-4-27.xlsx</v>
       </c>
-      <c r="S5" t="str">
+      <c r="X5" t="str">
         <v>Nha Thu_2025-4-4.xlsx</v>
       </c>
-      <c r="T5" t="str">
+      <c r="Y5" t="str">
         <v>Nha Thu_2025-5-21.xlsx</v>
       </c>
-      <c r="U5" t="str">
+      <c r="Z5" t="str">
         <v>Nha Thu_2025-5-26.xlsx</v>
       </c>
-      <c r="V5" t="str">
+      <c r="AA5" t="str">
         <v>Nha Thu_2025-5-31.xlsx</v>
       </c>
-      <c r="W5" t="str">
+      <c r="AB5" t="str">
         <v>Nha Thu_2025-5-7.xlsx</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AC5" t="str">
         <v>Nha Thu_2025-5-9.xlsx</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AD5" t="str">
         <v>Nha Thu_2025-6-18.xlsx</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AE5" t="str">
         <v>Nha Thu_2025-6-21.xlsx</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AF5" t="str">
         <v>Nha Thu_2025-6-27.xlsx</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AG5" t="str">
         <v>Nha Thu_2025-6-29.xlsx</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AH5" t="str">
         <v>Nha Thu_2025-6-3.xlsx</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AI5" t="str">
         <v>Nha Thu_2025-6-6.xlsx</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AJ5" t="str">
         <v>Nha Thu_2025-6-9.xlsx</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AK5" t="str">
         <v>Nha Thu_2025-7-10.xlsx</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AL5" t="str">
         <v>Nha Thu_2025-7-14.xlsx</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AM5" t="str">
         <v>Nha Thu_2025-7-15.xlsx</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AN5" t="str">
         <v>Nha Thu_2025-7-16.xlsx</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AO5" t="str">
         <v>Nha Thu_2025-7-23.xlsx</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AP5" t="str">
         <v>Nha Thu_2025-7-28.xlsx</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AQ5" t="str">
         <v>Nha Thu_2025-7-5.xlsx</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AR5" t="str">
         <v>Nha Thu_2025-8-14.xlsx</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AS5" t="str">
         <v>Nha Thu_2025-8-16.xlsx</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AT5" t="str">
         <v>Nha Thu_2025-8-18.xlsx</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AU5" t="str">
         <v>Nha Thu_2025-8-2.xlsx</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AV5" t="str">
         <v>Nha Thu_2025-8-29.xlsx</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="AW5" t="str">
         <v>Nha Thu_2025-8-3.xlsx</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="AX5" t="str">
         <v>Nha Thu_2025-8-6.xlsx</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="AY5" t="str">
         <v>Nha Thu_2025-8-7.xlsx</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="AZ5" t="str">
         <v>Nha Thu_2025-8-9.xlsx</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="BA5" t="str">
         <v>Nha Thu_2025-9-13.xlsx</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="BB5" t="str">
         <v>Nha Thu_2025-9-2.xlsx</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="BC5" t="str">
         <v>Nha Thu_2025-9-20.xlsx</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="BD5" t="str">
         <v>Nha Thu_2025-9-25.xlsx</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BE5" t="str">
         <v>Nha Thu_2025-9-27.xlsx</v>
       </c>
     </row>
@@ -1463,26 +1538,34 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>korean papa</v>
+        <v>Unknown</v>
       </c>
       <c r="B7" t="str">
-        <v>korean papa_2024-10-24.xlsx</v>
+        <v>_-undefined-undefined.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>korean papa</v>
+      </c>
+      <c r="B8" t="str">
+        <v>korean papa_2024-10-24.xlsx</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>name001</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <v>name001_2024-10-29.xlsx</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <v>name001_2025-5-23.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:EN8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:EV9"/>
   </ignoredErrors>
 </worksheet>
 </file>